--- a/starter/src/main/resources/static/downloads/excel/team_member.xlsx
+++ b/starter/src/main/resources/static/downloads/excel/team_member.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15600"/>
+    <workbookView windowWidth="30480" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>昵称</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>分机号</t>
+  </si>
+  <si>
+    <t>密码</t>
   </si>
   <si>
     <t>test0</t>
@@ -1303,18 +1306,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="30.6057692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:8">
+    <row r="1" ht="21" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1339,13 +1343,16 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>18888888000</v>
@@ -1354,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1365,13 +1372,16 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
+      <c r="I2" s="1">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>18800000001</v>
@@ -1380,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1391,13 +1401,16 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
+      <c r="I3" s="1">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>18800000002</v>
@@ -1406,10 +1419,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1417,13 +1430,16 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
+      <c r="I4" s="1">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>18800000003</v>
@@ -1432,10 +1448,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1443,13 +1459,16 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
+      <c r="I5" s="1">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>18800000004</v>
@@ -1458,10 +1477,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1469,13 +1488,16 @@
       <c r="H6" s="1">
         <v>4</v>
       </c>
+      <c r="I6" s="1">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>18800000005</v>
@@ -1484,16 +1506,19 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/starter/src/main/resources/static/downloads/excel/team_member.xlsx
+++ b/starter/src/main/resources/static/downloads/excel/team_member.xlsx
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -1343,7 +1343,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/starter/src/main/resources/static/downloads/excel/team_member.xlsx
+++ b/starter/src/main/resources/static/downloads/excel/team_member.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30480" windowHeight="9780"/>
+    <workbookView windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>昵称</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>分机号</t>
-  </si>
-  <si>
-    <t>密码</t>
   </si>
   <si>
     <t>test0</t>
@@ -1306,19 +1303,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="30.6057692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:9">
+    <row r="1" ht="21" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1343,16 +1339,13 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>18888888000</v>
@@ -1361,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1372,16 +1365,13 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <v>123456</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>18800000001</v>
@@ -1390,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1401,16 +1391,13 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <v>123456</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>18800000002</v>
@@ -1419,10 +1406,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1430,16 +1417,13 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1">
-        <v>123456</v>
-      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>18800000003</v>
@@ -1448,10 +1432,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1459,16 +1443,13 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
-        <v>123456</v>
-      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>18800000004</v>
@@ -1477,10 +1458,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1488,16 +1469,13 @@
       <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="1">
-        <v>123456</v>
-      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+    <row r="7" s="1" customFormat="1" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>18800000005</v>
@@ -1506,19 +1484,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>123456</v>
       </c>
     </row>
   </sheetData>
